--- a/medicine/Psychotrope/Jens-Reidar_Larsen/Jens-Reidar_Larsen.xlsx
+++ b/medicine/Psychotrope/Jens-Reidar_Larsen/Jens-Reidar_Larsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jens-Reidar Larsen, né à Kristiansand (Norvège) le 8 mai 1895 et mort à Cognac (Charente) le 20 mars 1980, est un homme d'affaires norvégien.
 Il a fondé en 1926 la société de cognac Larsen, "Le cognac des Vikings", dont le siège est à Cognac. À partir de 1950, il a introduit des bouteilles en forme de navires vikings, nommés drakkar, qui restent aujourd'hui iconiques de la marque. 
@@ -514,13 +526,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Il était à l'origine un skipper de Tromsø en route pour l'Amérique pour terminer ses études, mais ayant mal navigué, il s'est retrouvé à Bordeaux[1]. Dans cette ville il a commencé à travailler sur le vin et les spiritueux, avant de déménager à Cognac après s'être beaucoup intéressé à l'eau-de-vie.
-Vie professionnelle
-À Cognac, il a d'abord travaillé pour la maison Cognac Prunier, puis a acheté une maison Cognac (Joseph Gautier) en 1926, et a lancé sa propre marque : Larsen. Il avait le thème Viking dès le début, et à partir des années 1950, il a introduit des bouteilles en forme de bateau viking (drakkar), pour lesquelles la maison est connue aujourd'hui. Le slogan est très tôt devenu "Le cognac des Vikings".
-Postérité
-Jens-Reidar Larsen a épousé une femme de Cognac, Gilette Larsen née Gourgand, et ensemble ils ont donné naissance à leur fils Jean et leur fille Anne-Marie. C'est Jean qui a ensuite repris la maison et a très bien réussi, surtout avec les exportations. Les fils de Jean, Frédéric et Nicolas Larsen, ont par la suite repris l'opération.
-Aujourd'hui, la marque n'appartient plus aux descendants de Jens-Reidar Larsen, depuis que ceux-ci l'ont revendue à la marque Cointreau. Eux-mêmes l'ont revendue peu de temps après à Altia[2], marque nordique de spiritueux, qui reste de nos jours propriétaire du cognac Larsen. Le cognac Larsen est la première marque de cognac dans les pays nordiques.
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il était à l'origine un skipper de Tromsø en route pour l'Amérique pour terminer ses études, mais ayant mal navigué, il s'est retrouvé à Bordeaux. Dans cette ville il a commencé à travailler sur le vin et les spiritueux, avant de déménager à Cognac après s'être beaucoup intéressé à l'eau-de-vie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jens-Reidar_Larsen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jens-Reidar_Larsen</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Cognac, il a d'abord travaillé pour la maison Cognac Prunier, puis a acheté une maison Cognac (Joseph Gautier) en 1926, et a lancé sa propre marque : Larsen. Il avait le thème Viking dès le début, et à partir des années 1950, il a introduit des bouteilles en forme de bateau viking (drakkar), pour lesquelles la maison est connue aujourd'hui. Le slogan est très tôt devenu "Le cognac des Vikings".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jens-Reidar_Larsen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jens-Reidar_Larsen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jens-Reidar Larsen a épousé une femme de Cognac, Gilette Larsen née Gourgand, et ensemble ils ont donné naissance à leur fils Jean et leur fille Anne-Marie. C'est Jean qui a ensuite repris la maison et a très bien réussi, surtout avec les exportations. Les fils de Jean, Frédéric et Nicolas Larsen, ont par la suite repris l'opération.
+Aujourd'hui, la marque n'appartient plus aux descendants de Jens-Reidar Larsen, depuis que ceux-ci l'ont revendue à la marque Cointreau. Eux-mêmes l'ont revendue peu de temps après à Altia, marque nordique de spiritueux, qui reste de nos jours propriétaire du cognac Larsen. Le cognac Larsen est la première marque de cognac dans les pays nordiques.
 </t>
         </is>
       </c>
